--- a/bots/crawl_ch/output/electronics_2022-08-14.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-14.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1735,50 +1735,48 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1786,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,53 +1801,55 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1952,29 +1952,29 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,39 +2013,39 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2084,17 +2084,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2167,29 +2167,29 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 30% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2309,24 +2309,24 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2340,17 +2340,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2375,34 +2375,34 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 30% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2446,12 +2446,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3374,34 +3374,40 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3409,56 +3415,66 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3466,39 +3482,23 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3657,77 +3657,95 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 30% ab 2 Aktion 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3735,16 +3753,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3758,44 +3776,46 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3804,88 +3824,68 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 30% ab 2 Aktion 7.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4109,92 +4109,110 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>3</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -4203,88 +4221,70 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4457,103 +4457,121 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 30% ab 2 Aktion 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4563,7 +4581,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4573,112 +4591,92 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 30% ab 2 Aktion 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 30% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 30% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -4689,17 +4687,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4709,7 +4707,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4719,34 +4717,34 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 30% ab 2 Aktion 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4754,23 +4752,25 @@
           <t>6ST</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 30% ab 2 Aktion 12.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-14 07:01:25</t>
+          <t>2022-08-14 20:57:31</t>
         </is>
       </c>
     </row>
